--- a/docs/ST1a/ST1a_24.07.24_output.xlsx
+++ b/docs/ST1a/ST1a_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731661964.0357544</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731661966.4524248</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661964.0357544.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661966.4524248.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.83</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.67</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1599999999999682</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731661966.5063958</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731661968.3145933</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661966.5063958.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731661968.3145933.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>295.81</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>295.72</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.08999999999997499</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -643,139 +671,157 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731661968.6481915</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731661968.6481915.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731661968.6481915.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>295.8</v>
       </c>
-      <c r="J5" t="n">
-        <v>295.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>296.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731661973.905917</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731661973.905917.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731661973.905917.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>136.12</v>
       </c>
-      <c r="J6" t="n">
-        <v>136.12</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>136.76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6399999999999864</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731661982.5735872</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731661984.6787734</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661982.5735872.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661984.6787734.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6971</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6971</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -783,51 +829,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731661984.6956995</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731661988.947144</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661984.6956995.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661988.947144.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6971</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6968</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-3</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -835,51 +887,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731661988.9630978</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731661993.127607</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661988.9630978.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731661993.127607.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6968</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6966.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -887,95 +945,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731661993.1435375</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731661993.1435375.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731661993.1435375.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6966.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>6966.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6972</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731662000.1902063</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731662002.1409554</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662000.1902063.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662002.1409554.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>536.3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>536.3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,51 +1053,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731662007.2639403</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731662008.2699816</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662007.2639403.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662008.2699816.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1100.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>5.600000000000136</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -1035,51 +1111,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731662020.43349</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731662022.514734</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662020.43349.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662022.514734.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>129.32</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>130.68</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.360000000000014</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -1087,51 +1169,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731662029.5843146</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731662032.4861803</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662029.5843146.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662032.4861803.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>168.28</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>168.44</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1139,51 +1227,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731662040.5289705</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731662045.7721264</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662040.5289705.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662045.7721264.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>53.485</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>53.365</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1191,51 +1285,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731662052.5753064</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731662055.426648</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662052.5753064.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662055.426648.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1465</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1464.2</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731662066.7595484</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731662070.4546056</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662066.7595484.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662070.4546056.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>63.78</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>64.33</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5499999999999972</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731662072.5933003</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731662073.9823647</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662072.5933003.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662073.9823647.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>64.23</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>64.17</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731662074.4906754</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731662080.467929</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SELG1731662074.4906754.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SELG1731662080.467929.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>59.46</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>58.87</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.5900000000000034</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.9900000000000001</v>
       </c>
     </row>
@@ -1399,139 +1517,157 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731662082.275028</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731662082.275028.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731662082.275028.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>59.09</v>
       </c>
-      <c r="J20" t="n">
-        <v>59.09</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>59.21</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.1199999999999974</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731662090.8808317</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731662090.8808317.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731662090.8808317.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>145.84</v>
       </c>
-      <c r="J21" t="n">
-        <v>145.84</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>146.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.2599999999999909</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731662097.282333</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731662103.444872</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662097.282333.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662103.444872.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>90.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.7999999999999972</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.89</v>
       </c>
     </row>
@@ -1539,51 +1675,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731662104.0727189</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731662106.1912973</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662104.0727189.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662106.1912973.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>89.38</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>89.28</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1591,51 +1733,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731662109.5690382</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731662112.5273528</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662109.5690382.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662112.5273528.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>362.33</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>362.65</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.3199999999999932</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1643,51 +1791,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731662112.6249883</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731662114.707641</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662112.6249883.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662114.707641.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>362.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>363.25</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1695,95 +1849,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731662118.5860186</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731662118.5860186.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731662118.5860186.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>371.52</v>
       </c>
-      <c r="J26" t="n">
-        <v>371.52</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>370.24</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1.279999999999973</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731662119.5634217</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731662123.859398</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/FEES1731662119.5634217.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/FEES1731662123.859398.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>0.09908</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>0.1003</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.001219999999999999</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-1.23</v>
       </c>
     </row>
@@ -1791,51 +1957,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731662131.4251316</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731662134.5182412</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662131.4251316.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662134.5182412.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>3115.65</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>3117.25</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1843,51 +2015,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731662134.542177</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731662137.5561287</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662134.542177.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662137.5561287.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>3117.25</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>3120.1</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2.849999999999909</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1895,95 +2073,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731662140.2371817</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731662140.2371817.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731662140.2371817.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>3121.65</v>
       </c>
-      <c r="J30" t="n">
-        <v>3121.65</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3132.95</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11.29999999999973</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731662143.4839087</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731662153.7353508</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731662143.4839087.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731662153.7353508.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>38.38</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>37.995</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.3850000000000051</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1991,51 +2181,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731662155.1887312</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731662156.6562693</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662155.1887312.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662156.6562693.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>662.7</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>662.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2043,51 +2239,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731662157.605477</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731662160.0653133</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662157.605477.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662160.0653133.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>663.1</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>663.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.2999999999999545</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2095,44 +2297,50 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731662163.5041978</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731662163.5041978.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731662163.5041978.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>664.5</v>
       </c>
-      <c r="J34" t="n">
-        <v>664.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>665.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7000000000000455</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -2193,19 +2401,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.375</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -2215,19 +2423,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.25</v>
+        <v>12.54999999999973</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4166666666666667</v>
+        <v>4.183333333333242</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -2237,19 +2445,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5300000000000296</v>
+        <v>-0.7499999999999432</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1766666666666765</v>
+        <v>-0.249999999999981</v>
       </c>
       <c r="E4" t="n">
-        <v>0.14</v>
+        <v>-0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -2259,19 +2467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3999999999999773</v>
+        <v>1.100000000000023</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1333333333333258</v>
+        <v>0.3666666666666742</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -2281,19 +2489,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.06999999999999318</v>
+        <v>0.6299999999999955</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02333333333333106</v>
+        <v>0.2099999999999985</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02</v>
+        <v>0.22</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2303,19 +2511,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5900000000000034</v>
+        <v>0.470000000000006</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2950000000000017</v>
+        <v>0.235000000000003</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9900000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -2501,19 +2709,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.6399999999999864</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.6399999999999864</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="17">
@@ -2545,19 +2753,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="19">
